--- a/DATA SCIENCE SALARY DASHBOARD.xlsx
+++ b/DATA SCIENCE SALARY DASHBOARD.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Excel notes\Excel project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A17AD9A-7AE1-4185-8DCC-D836BDF59CD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F5D4943-E605-4945-8E01-13B591D79F01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1410,7 +1410,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
+        <fgColor theme="1" tint="0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1427,7 +1427,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1448,6 +1448,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2107,8 +2108,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="8.2974911495550627E-2"/>
-          <c:y val="9.9671941444429507E-2"/>
+          <c:x val="6.1903792756491015E-2"/>
+          <c:y val="4.3376283797205546E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -3672,8 +3673,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.21908627435539593"/>
-          <c:y val="0.11329790508681313"/>
+          <c:x val="0.25225666768398075"/>
+          <c:y val="5.0669854873224666E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -3750,10 +3751,11 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="accent2">
-                      <a:lumMod val="75000"/>
+                    <a:schemeClr val="tx2">
+                      <a:lumMod val="95000"/>
+                      <a:lumOff val="5000"/>
                     </a:schemeClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
@@ -3829,10 +3831,11 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="accent2">
-                        <a:lumMod val="75000"/>
+                      <a:schemeClr val="tx2">
+                        <a:lumMod val="95000"/>
+                        <a:lumOff val="5000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
@@ -4243,9 +4246,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-IN" sz="1800" b="1" i="0" u="none" strike="noStrike" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
+              <a:rPr lang="en-IN"/>
               <a:t>Average Salary vs. Experience Level</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
@@ -4340,7 +4341,9 @@
         <c:dLbl>
           <c:idx val="0"/>
           <c:spPr>
-            <a:noFill/>
+            <a:solidFill>
+              <a:srgbClr val="00B0F0"/>
+            </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -4355,7 +4358,7 @@
               <a:pPr>
                 <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="lt1"/>
+                    <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -4421,7 +4424,9 @@
           </c:marker>
           <c:dLbls>
             <c:spPr>
-              <a:noFill/>
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
               <a:ln>
                 <a:noFill/>
               </a:ln>
@@ -4436,7 +4441,7 @@
                 <a:pPr>
                   <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="lt1"/>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -7221,15 +7226,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>136071</xdr:colOff>
+      <xdr:colOff>136070</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>34016</xdr:rowOff>
+      <xdr:rowOff>34015</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>119062</xdr:colOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>17970</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>40820</xdr:rowOff>
+      <xdr:rowOff>71886</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7244,8 +7249,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="136071" y="34016"/>
-          <a:ext cx="11004777" cy="517072"/>
+          <a:off x="136070" y="34015"/>
+          <a:ext cx="16990957" cy="523107"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -7274,40 +7279,26 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="en-IN" sz="1100" b="1">
+            <a:rPr lang="en-IN" sz="2200" b="1" u="none" baseline="0">
               <a:solidFill>
-                <a:srgbClr val="00B0F0"/>
+                <a:schemeClr val="bg1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>D</a:t>
+            <a:t>DATA SCIENCE </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-IN" sz="1200" b="1">
+            <a:rPr lang="en-US" sz="2200" b="1" u="none" baseline="0">
               <a:solidFill>
-                <a:srgbClr val="00B0F0"/>
+                <a:schemeClr val="bg1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>ATA</a:t>
+            <a:t>SALARY DASHBOARD</a:t>
           </a:r>
-          <a:r>
-            <a:rPr lang="en-IN" sz="1200" b="1" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="00B0F0"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t> SCIENCE SALARY </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-IN" sz="1200" b="1" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="00B0F0"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>DASHBOARD</a:t>
-          </a:r>
+          <a:endParaRPr lang="en-IN" sz="2200" b="1" u="none" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="ctr"/>
@@ -7324,15 +7315,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>157842</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>40821</xdr:rowOff>
+      <xdr:colOff>135163</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>132670</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>584868</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>16711</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>382133</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>115661</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7362,15 +7353,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>114098</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>54855</xdr:rowOff>
+      <xdr:colOff>155883</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>114161</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>585596</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>2180</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7399,16 +7390,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>176893</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>40819</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>343581</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>159879</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>167105</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>33420</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>142873</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7437,19 +7428,19 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>171432</xdr:colOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>110180</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>76546</xdr:rowOff>
+      <xdr:rowOff>90896</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>33421</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>66842</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>501411</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="9" name="company_location">
@@ -7472,7 +7463,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -7482,8 +7473,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="11601432" y="744967"/>
-              <a:ext cx="1666726" cy="7008717"/>
+              <a:off x="14805894" y="725896"/>
+              <a:ext cx="2228196" cy="8529229"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -7515,16 +7506,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>166619</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>51179</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>333376</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>151848</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>152574</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11971,7 +11962,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3318447A-BA7F-469A-B162-65FED51C1000}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3318447A-BA7F-469A-B162-65FED51C1000}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
   <location ref="A3:B7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField dataField="1" showAll="0"/>
@@ -12793,7 +12784,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AA4E2491-B338-4467-81A2-8A6E207BA21E}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AA4E2491-B338-4467-81A2-8A6E207BA21E}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
   <location ref="A3:B8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField showAll="0"/>
@@ -13193,7 +13184,7 @@
   <dimension ref="A3:B7"/>
   <sheetViews>
     <sheetView zoomScale="78" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -13316,7 +13307,7 @@
       <c r="A4" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="12">
         <v>386914.82608695654</v>
       </c>
     </row>
@@ -13324,7 +13315,7 @@
       <c r="A5" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="12">
         <v>400000</v>
       </c>
     </row>
@@ -13332,7 +13323,7 @@
       <c r="A6" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="12">
         <v>450000</v>
       </c>
     </row>
@@ -13340,7 +13331,7 @@
       <c r="A7" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="12">
         <v>455000</v>
       </c>
     </row>
@@ -13348,7 +13339,7 @@
       <c r="A8" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="12">
         <v>569000</v>
       </c>
     </row>
@@ -13356,7 +13347,7 @@
       <c r="A9" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="12">
         <v>841587.57142857148</v>
       </c>
     </row>
@@ -13364,7 +13355,7 @@
       <c r="A10" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="12">
         <v>1101666.6666666667</v>
       </c>
     </row>
@@ -13372,7 +13363,7 @@
       <c r="A11" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="12">
         <v>1700028.5714285714</v>
       </c>
     </row>
@@ -13380,7 +13371,7 @@
       <c r="A12" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="12">
         <v>1902045.3333333333</v>
       </c>
     </row>
@@ -13388,7 +13379,7 @@
       <c r="A13" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="12">
         <v>3208000</v>
       </c>
     </row>
@@ -13396,7 +13387,7 @@
       <c r="A14" s="7" t="s">
         <v>434</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="12">
         <v>918619.23622047249</v>
       </c>
     </row>
@@ -13410,7 +13401,7 @@
   <dimension ref="A3:B20"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -13440,7 +13431,7 @@
       <c r="A4" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="12">
         <v>67</v>
       </c>
     </row>
@@ -13448,7 +13439,7 @@
       <c r="A5" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="12">
         <v>1</v>
       </c>
     </row>
@@ -13456,7 +13447,7 @@
       <c r="A6" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="12">
         <v>60</v>
       </c>
     </row>
@@ -13464,7 +13455,7 @@
       <c r="A7" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="12">
         <v>6</v>
       </c>
     </row>
@@ -13472,7 +13463,7 @@
       <c r="A8" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="12">
         <v>13</v>
       </c>
     </row>
@@ -13480,7 +13471,7 @@
       <c r="A9" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="12">
         <v>1</v>
       </c>
     </row>
@@ -13488,7 +13479,7 @@
       <c r="A10" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="12">
         <v>12</v>
       </c>
     </row>
@@ -13496,7 +13487,7 @@
       <c r="A11" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="12">
         <v>126</v>
       </c>
     </row>
@@ -13504,7 +13495,7 @@
       <c r="A12" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="12">
         <v>1</v>
       </c>
     </row>
@@ -13512,7 +13503,7 @@
       <c r="A13" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="12">
         <v>2</v>
       </c>
     </row>
@@ -13520,7 +13511,7 @@
       <c r="A14" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="12">
         <v>121</v>
       </c>
     </row>
@@ -13528,7 +13519,7 @@
       <c r="A15" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="12">
         <v>2</v>
       </c>
     </row>
@@ -13536,7 +13527,7 @@
       <c r="A16" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="12">
         <v>94</v>
       </c>
     </row>
@@ -13544,7 +13535,7 @@
       <c r="A17" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="12">
         <v>1</v>
       </c>
     </row>
@@ -13552,7 +13543,7 @@
       <c r="A18" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="12">
         <v>1</v>
       </c>
     </row>
@@ -13560,7 +13551,7 @@
       <c r="A19" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="12">
         <v>92</v>
       </c>
     </row>
@@ -13568,7 +13559,7 @@
       <c r="A20" s="7" t="s">
         <v>434</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="12">
         <v>300</v>
       </c>
     </row>
@@ -13603,7 +13594,7 @@
       <c r="A4" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="12">
         <v>306357.85074626864</v>
       </c>
     </row>
@@ -13611,7 +13602,7 @@
       <c r="A5" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="12">
         <v>213846.15384615384</v>
       </c>
     </row>
@@ -13619,7 +13610,7 @@
       <c r="A6" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="12">
         <v>722127.0555555555</v>
       </c>
     </row>
@@ -13627,7 +13618,7 @@
       <c r="A7" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="12">
         <v>353621.24468085106</v>
       </c>
     </row>
@@ -13635,7 +13626,7 @@
       <c r="A8" s="7" t="s">
         <v>434</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="12">
         <v>491781.27333333332</v>
       </c>
     </row>
@@ -13651,7 +13642,7 @@
   </sheetPr>
   <dimension ref="A1:L301"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
@@ -25116,10 +25107,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44D72109-D832-4F2F-AD69-69A528833105}">
-  <dimension ref="A1:Y51"/>
+  <dimension ref="A1:AB59"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="57" workbookViewId="0">
-      <selection activeCell="W27" sqref="W27"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="42" workbookViewId="0">
+      <selection activeCell="L36" sqref="L36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -25127,7 +25118,7 @@
     <col min="1" max="16384" width="9.140625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1" s="11"/>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
@@ -25153,8 +25144,11 @@
       <c r="W1" s="11"/>
       <c r="X1" s="11"/>
       <c r="Y1" s="11"/>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z1" s="11"/>
+      <c r="AA1" s="11"/>
+      <c r="AB1" s="11"/>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A2" s="11"/>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
@@ -25180,8 +25174,11 @@
       <c r="W2" s="11"/>
       <c r="X2" s="11"/>
       <c r="Y2" s="11"/>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z2" s="11"/>
+      <c r="AA2" s="11"/>
+      <c r="AB2" s="11"/>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
@@ -25207,8 +25204,11 @@
       <c r="W3" s="11"/>
       <c r="X3" s="11"/>
       <c r="Y3" s="11"/>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z3" s="11"/>
+      <c r="AA3" s="11"/>
+      <c r="AB3" s="11"/>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A4" s="11"/>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
@@ -25234,8 +25234,11 @@
       <c r="W4" s="11"/>
       <c r="X4" s="11"/>
       <c r="Y4" s="11"/>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z4" s="11"/>
+      <c r="AA4" s="11"/>
+      <c r="AB4" s="11"/>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="11"/>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
@@ -25261,8 +25264,11 @@
       <c r="W5" s="11"/>
       <c r="X5" s="11"/>
       <c r="Y5" s="11"/>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z5" s="11"/>
+      <c r="AA5" s="11"/>
+      <c r="AB5" s="11"/>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A6" s="11"/>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
@@ -25288,8 +25294,11 @@
       <c r="W6" s="11"/>
       <c r="X6" s="11"/>
       <c r="Y6" s="11"/>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z6" s="11"/>
+      <c r="AA6" s="11"/>
+      <c r="AB6" s="11"/>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A7" s="11"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
@@ -25315,8 +25324,11 @@
       <c r="W7" s="11"/>
       <c r="X7" s="11"/>
       <c r="Y7" s="11"/>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z7" s="11"/>
+      <c r="AA7" s="11"/>
+      <c r="AB7" s="11"/>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
@@ -25342,8 +25354,11 @@
       <c r="W8" s="11"/>
       <c r="X8" s="11"/>
       <c r="Y8" s="11"/>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z8" s="11"/>
+      <c r="AA8" s="11"/>
+      <c r="AB8" s="11"/>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A9" s="11"/>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
@@ -25369,8 +25384,11 @@
       <c r="W9" s="11"/>
       <c r="X9" s="11"/>
       <c r="Y9" s="11"/>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z9" s="11"/>
+      <c r="AA9" s="11"/>
+      <c r="AB9" s="11"/>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A10" s="11"/>
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
@@ -25396,8 +25414,11 @@
       <c r="W10" s="11"/>
       <c r="X10" s="11"/>
       <c r="Y10" s="11"/>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z10" s="11"/>
+      <c r="AA10" s="11"/>
+      <c r="AB10" s="11"/>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A11" s="11"/>
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
@@ -25423,8 +25444,11 @@
       <c r="W11" s="11"/>
       <c r="X11" s="11"/>
       <c r="Y11" s="11"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="11"/>
+      <c r="AA11" s="11"/>
+      <c r="AB11" s="11"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A12" s="11"/>
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
@@ -25450,8 +25474,11 @@
       <c r="W12" s="11"/>
       <c r="X12" s="11"/>
       <c r="Y12" s="11"/>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="11"/>
+      <c r="AA12" s="11"/>
+      <c r="AB12" s="11"/>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A13" s="11"/>
       <c r="B13" s="11"/>
       <c r="C13" s="11"/>
@@ -25477,8 +25504,11 @@
       <c r="W13" s="11"/>
       <c r="X13" s="11"/>
       <c r="Y13" s="11"/>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="11"/>
+      <c r="AA13" s="11"/>
+      <c r="AB13" s="11"/>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A14" s="11"/>
       <c r="B14" s="11"/>
       <c r="C14" s="11"/>
@@ -25504,8 +25534,11 @@
       <c r="W14" s="11"/>
       <c r="X14" s="11"/>
       <c r="Y14" s="11"/>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="11"/>
+      <c r="AA14" s="11"/>
+      <c r="AB14" s="11"/>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A15" s="11"/>
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
@@ -25531,8 +25564,11 @@
       <c r="W15" s="11"/>
       <c r="X15" s="11"/>
       <c r="Y15" s="11"/>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="11"/>
+      <c r="AA15" s="11"/>
+      <c r="AB15" s="11"/>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A16" s="11"/>
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
@@ -25558,8 +25594,11 @@
       <c r="W16" s="11"/>
       <c r="X16" s="11"/>
       <c r="Y16" s="11"/>
-    </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="11"/>
+      <c r="AA16" s="11"/>
+      <c r="AB16" s="11"/>
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A17" s="11"/>
       <c r="B17" s="11"/>
       <c r="C17" s="11"/>
@@ -25585,8 +25624,11 @@
       <c r="W17" s="11"/>
       <c r="X17" s="11"/>
       <c r="Y17" s="11"/>
-    </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z17" s="11"/>
+      <c r="AA17" s="11"/>
+      <c r="AB17" s="11"/>
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A18" s="11"/>
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
@@ -25612,8 +25654,11 @@
       <c r="W18" s="11"/>
       <c r="X18" s="11"/>
       <c r="Y18" s="11"/>
-    </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z18" s="11"/>
+      <c r="AA18" s="11"/>
+      <c r="AB18" s="11"/>
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A19" s="11"/>
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
@@ -25639,8 +25684,11 @@
       <c r="W19" s="11"/>
       <c r="X19" s="11"/>
       <c r="Y19" s="11"/>
-    </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="11"/>
+      <c r="AA19" s="11"/>
+      <c r="AB19" s="11"/>
+    </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A20" s="11"/>
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>
@@ -25666,8 +25714,11 @@
       <c r="W20" s="11"/>
       <c r="X20" s="11"/>
       <c r="Y20" s="11"/>
-    </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z20" s="11"/>
+      <c r="AA20" s="11"/>
+      <c r="AB20" s="11"/>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A21" s="11"/>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
@@ -25693,8 +25744,11 @@
       <c r="W21" s="11"/>
       <c r="X21" s="11"/>
       <c r="Y21" s="11"/>
-    </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z21" s="11"/>
+      <c r="AA21" s="11"/>
+      <c r="AB21" s="11"/>
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A22" s="11"/>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
@@ -25720,8 +25774,11 @@
       <c r="W22" s="11"/>
       <c r="X22" s="11"/>
       <c r="Y22" s="11"/>
-    </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="11"/>
+      <c r="AA22" s="11"/>
+      <c r="AB22" s="11"/>
+    </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A23" s="11"/>
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
@@ -25747,8 +25804,11 @@
       <c r="W23" s="11"/>
       <c r="X23" s="11"/>
       <c r="Y23" s="11"/>
-    </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z23" s="11"/>
+      <c r="AA23" s="11"/>
+      <c r="AB23" s="11"/>
+    </row>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A24" s="11"/>
       <c r="B24" s="11"/>
       <c r="C24" s="11"/>
@@ -25774,8 +25834,11 @@
       <c r="W24" s="11"/>
       <c r="X24" s="11"/>
       <c r="Y24" s="11"/>
-    </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z24" s="11"/>
+      <c r="AA24" s="11"/>
+      <c r="AB24" s="11"/>
+    </row>
+    <row r="25" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A25" s="11"/>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
@@ -25801,8 +25864,11 @@
       <c r="W25" s="11"/>
       <c r="X25" s="11"/>
       <c r="Y25" s="11"/>
-    </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="11"/>
+      <c r="AA25" s="11"/>
+      <c r="AB25" s="11"/>
+    </row>
+    <row r="26" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A26" s="11"/>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
@@ -25828,8 +25894,11 @@
       <c r="W26" s="11"/>
       <c r="X26" s="11"/>
       <c r="Y26" s="11"/>
-    </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z26" s="11"/>
+      <c r="AA26" s="11"/>
+      <c r="AB26" s="11"/>
+    </row>
+    <row r="27" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A27" s="11"/>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
@@ -25855,8 +25924,11 @@
       <c r="W27" s="11"/>
       <c r="X27" s="11"/>
       <c r="Y27" s="11"/>
-    </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z27" s="11"/>
+      <c r="AA27" s="11"/>
+      <c r="AB27" s="11"/>
+    </row>
+    <row r="28" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A28" s="11"/>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
@@ -25882,8 +25954,11 @@
       <c r="W28" s="11"/>
       <c r="X28" s="11"/>
       <c r="Y28" s="11"/>
-    </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="11"/>
+      <c r="AA28" s="11"/>
+      <c r="AB28" s="11"/>
+    </row>
+    <row r="29" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A29" s="11"/>
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
@@ -25909,8 +25984,11 @@
       <c r="W29" s="11"/>
       <c r="X29" s="11"/>
       <c r="Y29" s="11"/>
-    </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="11"/>
+      <c r="AA29" s="11"/>
+      <c r="AB29" s="11"/>
+    </row>
+    <row r="30" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A30" s="11"/>
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
@@ -25936,8 +26014,11 @@
       <c r="W30" s="11"/>
       <c r="X30" s="11"/>
       <c r="Y30" s="11"/>
-    </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="11"/>
+      <c r="AA30" s="11"/>
+      <c r="AB30" s="11"/>
+    </row>
+    <row r="31" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A31" s="11"/>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
@@ -25963,8 +26044,11 @@
       <c r="W31" s="11"/>
       <c r="X31" s="11"/>
       <c r="Y31" s="11"/>
-    </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="11"/>
+      <c r="AA31" s="11"/>
+      <c r="AB31" s="11"/>
+    </row>
+    <row r="32" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A32" s="11"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
@@ -25990,8 +26074,11 @@
       <c r="W32" s="11"/>
       <c r="X32" s="11"/>
       <c r="Y32" s="11"/>
-    </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z32" s="11"/>
+      <c r="AA32" s="11"/>
+      <c r="AB32" s="11"/>
+    </row>
+    <row r="33" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A33" s="11"/>
       <c r="B33" s="11"/>
       <c r="C33" s="11"/>
@@ -26017,8 +26104,11 @@
       <c r="W33" s="11"/>
       <c r="X33" s="11"/>
       <c r="Y33" s="11"/>
-    </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z33" s="11"/>
+      <c r="AA33" s="11"/>
+      <c r="AB33" s="11"/>
+    </row>
+    <row r="34" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A34" s="11"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -26044,8 +26134,11 @@
       <c r="W34" s="11"/>
       <c r="X34" s="11"/>
       <c r="Y34" s="11"/>
-    </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="11"/>
+      <c r="AA34" s="11"/>
+      <c r="AB34" s="11"/>
+    </row>
+    <row r="35" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A35" s="11"/>
       <c r="B35" s="11"/>
       <c r="C35" s="11"/>
@@ -26071,8 +26164,11 @@
       <c r="W35" s="11"/>
       <c r="X35" s="11"/>
       <c r="Y35" s="11"/>
-    </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z35" s="11"/>
+      <c r="AA35" s="11"/>
+      <c r="AB35" s="11"/>
+    </row>
+    <row r="36" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A36" s="11"/>
       <c r="B36" s="11"/>
       <c r="C36" s="11"/>
@@ -26098,8 +26194,11 @@
       <c r="W36" s="11"/>
       <c r="X36" s="11"/>
       <c r="Y36" s="11"/>
-    </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z36" s="11"/>
+      <c r="AA36" s="11"/>
+      <c r="AB36" s="11"/>
+    </row>
+    <row r="37" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A37" s="11"/>
       <c r="B37" s="11"/>
       <c r="C37" s="11"/>
@@ -26125,8 +26224,11 @@
       <c r="W37" s="11"/>
       <c r="X37" s="11"/>
       <c r="Y37" s="11"/>
-    </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z37" s="11"/>
+      <c r="AA37" s="11"/>
+      <c r="AB37" s="11"/>
+    </row>
+    <row r="38" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A38" s="11"/>
       <c r="B38" s="11"/>
       <c r="C38" s="11"/>
@@ -26152,8 +26254,11 @@
       <c r="W38" s="11"/>
       <c r="X38" s="11"/>
       <c r="Y38" s="11"/>
-    </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z38" s="11"/>
+      <c r="AA38" s="11"/>
+      <c r="AB38" s="11"/>
+    </row>
+    <row r="39" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A39" s="11"/>
       <c r="B39" s="11"/>
       <c r="C39" s="11"/>
@@ -26179,8 +26284,11 @@
       <c r="W39" s="11"/>
       <c r="X39" s="11"/>
       <c r="Y39" s="11"/>
-    </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="11"/>
+      <c r="AA39" s="11"/>
+      <c r="AB39" s="11"/>
+    </row>
+    <row r="40" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A40" s="11"/>
       <c r="B40" s="11"/>
       <c r="C40" s="11"/>
@@ -26206,8 +26314,11 @@
       <c r="W40" s="11"/>
       <c r="X40" s="11"/>
       <c r="Y40" s="11"/>
-    </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="11"/>
+      <c r="AA40" s="11"/>
+      <c r="AB40" s="11"/>
+    </row>
+    <row r="41" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A41" s="11"/>
       <c r="B41" s="11"/>
       <c r="C41" s="11"/>
@@ -26233,8 +26344,11 @@
       <c r="W41" s="11"/>
       <c r="X41" s="11"/>
       <c r="Y41" s="11"/>
-    </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z41" s="11"/>
+      <c r="AA41" s="11"/>
+      <c r="AB41" s="11"/>
+    </row>
+    <row r="42" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A42" s="11"/>
       <c r="B42" s="11"/>
       <c r="C42" s="11"/>
@@ -26260,8 +26374,11 @@
       <c r="W42" s="11"/>
       <c r="X42" s="11"/>
       <c r="Y42" s="11"/>
-    </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="11"/>
+      <c r="AA42" s="11"/>
+      <c r="AB42" s="11"/>
+    </row>
+    <row r="43" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A43" s="11"/>
       <c r="B43" s="11"/>
       <c r="C43" s="11"/>
@@ -26287,8 +26404,11 @@
       <c r="W43" s="11"/>
       <c r="X43" s="11"/>
       <c r="Y43" s="11"/>
-    </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z43" s="11"/>
+      <c r="AA43" s="11"/>
+      <c r="AB43" s="11"/>
+    </row>
+    <row r="44" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A44" s="11"/>
       <c r="B44" s="11"/>
       <c r="C44" s="11"/>
@@ -26314,8 +26434,11 @@
       <c r="W44" s="11"/>
       <c r="X44" s="11"/>
       <c r="Y44" s="11"/>
-    </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="11"/>
+      <c r="AA44" s="11"/>
+      <c r="AB44" s="11"/>
+    </row>
+    <row r="45" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A45" s="11"/>
       <c r="B45" s="11"/>
       <c r="C45" s="11"/>
@@ -26341,8 +26464,11 @@
       <c r="W45" s="11"/>
       <c r="X45" s="11"/>
       <c r="Y45" s="11"/>
-    </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z45" s="11"/>
+      <c r="AA45" s="11"/>
+      <c r="AB45" s="11"/>
+    </row>
+    <row r="46" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A46" s="11"/>
       <c r="B46" s="11"/>
       <c r="C46" s="11"/>
@@ -26368,8 +26494,11 @@
       <c r="W46" s="11"/>
       <c r="X46" s="11"/>
       <c r="Y46" s="11"/>
-    </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z46" s="11"/>
+      <c r="AA46" s="11"/>
+      <c r="AB46" s="11"/>
+    </row>
+    <row r="47" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A47" s="11"/>
       <c r="B47" s="11"/>
       <c r="C47" s="11"/>
@@ -26395,8 +26524,11 @@
       <c r="W47" s="11"/>
       <c r="X47" s="11"/>
       <c r="Y47" s="11"/>
-    </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="11"/>
+      <c r="AA47" s="11"/>
+      <c r="AB47" s="11"/>
+    </row>
+    <row r="48" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A48" s="11"/>
       <c r="B48" s="11"/>
       <c r="C48" s="11"/>
@@ -26422,8 +26554,11 @@
       <c r="W48" s="11"/>
       <c r="X48" s="11"/>
       <c r="Y48" s="11"/>
-    </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z48" s="11"/>
+      <c r="AA48" s="11"/>
+      <c r="AB48" s="11"/>
+    </row>
+    <row r="49" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A49" s="11"/>
       <c r="B49" s="11"/>
       <c r="C49" s="11"/>
@@ -26449,8 +26584,11 @@
       <c r="W49" s="11"/>
       <c r="X49" s="11"/>
       <c r="Y49" s="11"/>
-    </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z49" s="11"/>
+      <c r="AA49" s="11"/>
+      <c r="AB49" s="11"/>
+    </row>
+    <row r="50" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A50" s="11"/>
       <c r="B50" s="11"/>
       <c r="C50" s="11"/>
@@ -26476,8 +26614,11 @@
       <c r="W50" s="11"/>
       <c r="X50" s="11"/>
       <c r="Y50" s="11"/>
-    </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="11"/>
+      <c r="AA50" s="11"/>
+      <c r="AB50" s="11"/>
+    </row>
+    <row r="51" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A51" s="11"/>
       <c r="B51" s="11"/>
       <c r="C51" s="11"/>
@@ -26503,6 +26644,249 @@
       <c r="W51" s="11"/>
       <c r="X51" s="11"/>
       <c r="Y51" s="11"/>
+      <c r="Z51" s="11"/>
+      <c r="AA51" s="11"/>
+      <c r="AB51" s="11"/>
+    </row>
+    <row r="52" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A52" s="11"/>
+      <c r="B52" s="11"/>
+      <c r="C52" s="11"/>
+      <c r="D52" s="11"/>
+      <c r="E52" s="11"/>
+      <c r="F52" s="11"/>
+      <c r="G52" s="11"/>
+      <c r="H52" s="11"/>
+      <c r="I52" s="11"/>
+      <c r="J52" s="11"/>
+      <c r="K52" s="11"/>
+      <c r="L52" s="11"/>
+      <c r="M52" s="11"/>
+      <c r="N52" s="11"/>
+      <c r="O52" s="11"/>
+      <c r="P52" s="11"/>
+      <c r="Q52" s="11"/>
+      <c r="R52" s="11"/>
+      <c r="S52" s="11"/>
+      <c r="T52" s="11"/>
+      <c r="U52" s="11"/>
+      <c r="V52" s="11"/>
+      <c r="W52" s="11"/>
+      <c r="X52" s="11"/>
+      <c r="Y52" s="11"/>
+      <c r="Z52" s="11"/>
+      <c r="AA52" s="11"/>
+      <c r="AB52" s="11"/>
+    </row>
+    <row r="53" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A53" s="11"/>
+      <c r="B53" s="11"/>
+      <c r="C53" s="11"/>
+      <c r="D53" s="11"/>
+      <c r="E53" s="11"/>
+      <c r="F53" s="11"/>
+      <c r="G53" s="11"/>
+      <c r="H53" s="11"/>
+      <c r="I53" s="11"/>
+      <c r="J53" s="11"/>
+      <c r="K53" s="11"/>
+      <c r="L53" s="11"/>
+      <c r="M53" s="11"/>
+      <c r="N53" s="11"/>
+      <c r="O53" s="11"/>
+      <c r="P53" s="11"/>
+      <c r="Q53" s="11"/>
+      <c r="R53" s="11"/>
+      <c r="S53" s="11"/>
+      <c r="T53" s="11"/>
+      <c r="U53" s="11"/>
+      <c r="V53" s="11"/>
+      <c r="W53" s="11"/>
+      <c r="X53" s="11"/>
+      <c r="Y53" s="11"/>
+      <c r="Z53" s="11"/>
+      <c r="AA53" s="11"/>
+      <c r="AB53" s="11"/>
+    </row>
+    <row r="54" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A54" s="11"/>
+      <c r="B54" s="11"/>
+      <c r="C54" s="11"/>
+      <c r="D54" s="11"/>
+      <c r="E54" s="11"/>
+      <c r="F54" s="11"/>
+      <c r="G54" s="11"/>
+      <c r="H54" s="11"/>
+      <c r="I54" s="11"/>
+      <c r="J54" s="11"/>
+      <c r="K54" s="11"/>
+      <c r="L54" s="11"/>
+      <c r="M54" s="11"/>
+      <c r="N54" s="11"/>
+      <c r="O54" s="11"/>
+      <c r="P54" s="11"/>
+      <c r="Q54" s="11"/>
+      <c r="R54" s="11"/>
+      <c r="S54" s="11"/>
+      <c r="T54" s="11"/>
+      <c r="U54" s="11"/>
+      <c r="V54" s="11"/>
+      <c r="W54" s="11"/>
+      <c r="X54" s="11"/>
+      <c r="Y54" s="11"/>
+      <c r="Z54" s="11"/>
+      <c r="AA54" s="11"/>
+      <c r="AB54" s="11"/>
+    </row>
+    <row r="55" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A55" s="11"/>
+      <c r="B55" s="11"/>
+      <c r="C55" s="11"/>
+      <c r="D55" s="11"/>
+      <c r="E55" s="11"/>
+      <c r="F55" s="11"/>
+      <c r="G55" s="11"/>
+      <c r="H55" s="11"/>
+      <c r="I55" s="11"/>
+      <c r="J55" s="11"/>
+      <c r="K55" s="11"/>
+      <c r="L55" s="11"/>
+      <c r="M55" s="11"/>
+      <c r="N55" s="11"/>
+      <c r="O55" s="11"/>
+      <c r="P55" s="11"/>
+      <c r="Q55" s="11"/>
+      <c r="R55" s="11"/>
+      <c r="S55" s="11"/>
+      <c r="T55" s="11"/>
+      <c r="U55" s="11"/>
+      <c r="V55" s="11"/>
+      <c r="W55" s="11"/>
+      <c r="X55" s="11"/>
+      <c r="Y55" s="11"/>
+      <c r="Z55" s="11"/>
+      <c r="AA55" s="11"/>
+      <c r="AB55" s="11"/>
+    </row>
+    <row r="56" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A56" s="11"/>
+      <c r="B56" s="11"/>
+      <c r="C56" s="11"/>
+      <c r="D56" s="11"/>
+      <c r="E56" s="11"/>
+      <c r="F56" s="11"/>
+      <c r="G56" s="11"/>
+      <c r="H56" s="11"/>
+      <c r="I56" s="11"/>
+      <c r="J56" s="11"/>
+      <c r="K56" s="11"/>
+      <c r="L56" s="11"/>
+      <c r="M56" s="11"/>
+      <c r="N56" s="11"/>
+      <c r="O56" s="11"/>
+      <c r="P56" s="11"/>
+      <c r="Q56" s="11"/>
+      <c r="R56" s="11"/>
+      <c r="S56" s="11"/>
+      <c r="T56" s="11"/>
+      <c r="U56" s="11"/>
+      <c r="V56" s="11"/>
+      <c r="W56" s="11"/>
+      <c r="X56" s="11"/>
+      <c r="Y56" s="11"/>
+      <c r="Z56" s="11"/>
+      <c r="AA56" s="11"/>
+      <c r="AB56" s="11"/>
+    </row>
+    <row r="57" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A57" s="11"/>
+      <c r="B57" s="11"/>
+      <c r="C57" s="11"/>
+      <c r="D57" s="11"/>
+      <c r="E57" s="11"/>
+      <c r="F57" s="11"/>
+      <c r="G57" s="11"/>
+      <c r="H57" s="11"/>
+      <c r="I57" s="11"/>
+      <c r="J57" s="11"/>
+      <c r="K57" s="11"/>
+      <c r="L57" s="11"/>
+      <c r="M57" s="11"/>
+      <c r="N57" s="11"/>
+      <c r="O57" s="11"/>
+      <c r="P57" s="11"/>
+      <c r="Q57" s="11"/>
+      <c r="R57" s="11"/>
+      <c r="S57" s="11"/>
+      <c r="T57" s="11"/>
+      <c r="U57" s="11"/>
+      <c r="V57" s="11"/>
+      <c r="W57" s="11"/>
+      <c r="X57" s="11"/>
+      <c r="Y57" s="11"/>
+      <c r="Z57" s="11"/>
+      <c r="AA57" s="11"/>
+      <c r="AB57" s="11"/>
+    </row>
+    <row r="58" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A58" s="11"/>
+      <c r="B58" s="11"/>
+      <c r="C58" s="11"/>
+      <c r="D58" s="11"/>
+      <c r="E58" s="11"/>
+      <c r="F58" s="11"/>
+      <c r="G58" s="11"/>
+      <c r="H58" s="11"/>
+      <c r="I58" s="11"/>
+      <c r="J58" s="11"/>
+      <c r="K58" s="11"/>
+      <c r="L58" s="11"/>
+      <c r="M58" s="11"/>
+      <c r="N58" s="11"/>
+      <c r="O58" s="11"/>
+      <c r="P58" s="11"/>
+      <c r="Q58" s="11"/>
+      <c r="R58" s="11"/>
+      <c r="S58" s="11"/>
+      <c r="T58" s="11"/>
+      <c r="U58" s="11"/>
+      <c r="V58" s="11"/>
+      <c r="W58" s="11"/>
+      <c r="X58" s="11"/>
+      <c r="Y58" s="11"/>
+      <c r="Z58" s="11"/>
+      <c r="AA58" s="11"/>
+      <c r="AB58" s="11"/>
+    </row>
+    <row r="59" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A59" s="11"/>
+      <c r="B59" s="11"/>
+      <c r="C59" s="11"/>
+      <c r="D59" s="11"/>
+      <c r="E59" s="11"/>
+      <c r="F59" s="11"/>
+      <c r="G59" s="11"/>
+      <c r="H59" s="11"/>
+      <c r="I59" s="11"/>
+      <c r="J59" s="11"/>
+      <c r="K59" s="11"/>
+      <c r="L59" s="11"/>
+      <c r="M59" s="11"/>
+      <c r="N59" s="11"/>
+      <c r="O59" s="11"/>
+      <c r="P59" s="11"/>
+      <c r="Q59" s="11"/>
+      <c r="R59" s="11"/>
+      <c r="S59" s="11"/>
+      <c r="T59" s="11"/>
+      <c r="U59" s="11"/>
+      <c r="V59" s="11"/>
+      <c r="W59" s="11"/>
+      <c r="X59" s="11"/>
+      <c r="Y59" s="11"/>
+      <c r="Z59" s="11"/>
+      <c r="AA59" s="11"/>
+      <c r="AB59" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DATA SCIENCE SALARY DASHBOARD.xlsx
+++ b/DATA SCIENCE SALARY DASHBOARD.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Excel notes\Excel project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F5D4943-E605-4945-8E01-13B591D79F01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06A2F143-F721-4DFA-8865-CE7B02D5959A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -19,18 +19,19 @@
     <sheet name="Sheet5" sheetId="5" r:id="rId4"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId5"/>
     <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
+    <sheet name="subjective questions" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="Slicer_company_location">#N/A</definedName>
   </definedNames>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId7"/>
+    <pivotCache cacheId="0" r:id="rId8"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
       <x14:slicerCaches>
-        <x14:slicerCache r:id="rId8"/>
+        <x14:slicerCache r:id="rId9"/>
       </x14:slicerCaches>
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2457" uniqueCount="437">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2480" uniqueCount="452">
   <si>
     <t>Index</t>
   </si>
@@ -1352,13 +1353,58 @@
   </si>
   <si>
     <t>Count of Index</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                                                                                   SUBJECTIVE QUESTIONS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANS.  </t>
+  </si>
+  <si>
+    <t>2.  Which job titles command higher average salaries in the Data Science field? Can we identify specific roles that offer more competitive compensation?</t>
+  </si>
+  <si>
+    <t>ANS.</t>
+  </si>
+  <si>
+    <t>1.  How is the distribution of company sizes in the Data Science job market? Are certain company sizes more prevalent in hiring Data Science professionals?</t>
+  </si>
+  <si>
+    <t>3.  Are there differences in employee counts based on experience levels and enrollment types? Does the hiring trend favor full-time or part-time employees at different experience levels?</t>
+  </si>
+  <si>
+    <t>4. How do average salaries vary with experience levels in Data Science? Is there a clear correlation between experience and earning potential?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The distribution of Data Science job market as per the company Sizes 51% of data science jobs are given from the large companies, 26% of jobs are given by the Medium companies and </t>
+  </si>
+  <si>
+    <t>23% of jobs are given by the small companies. So Based on this data large companies are more prevalent in hiring Data Science professionals.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Top 3 roles in Data science filed are ML Engineer, BI Data Analyst and Data Science Manager, these roles are offering Competitive compensation here are the compensation for the top three fields, </t>
+  </si>
+  <si>
+    <t>For ML Engineer the compensation is 3208000, For BI Data Analyst is 1902045 and for Data Science Manager is 1700028.</t>
+  </si>
+  <si>
+    <t>In terms of Enrollment types mostly companies prefer to hire Full time employees, and the distribution in terms of Experience level  companies mostly hire intermidiate and Entry level Employees.</t>
+  </si>
+  <si>
+    <t>Across all experience levels companies are prefering Full time employees.</t>
+  </si>
+  <si>
+    <t>From the Data you can see that Average salary is Decreasing when the Experience is increasing. With increasing Experience the Average salary is Decreasing</t>
+  </si>
+  <si>
+    <t>and Hence it is a Negative correlation.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1376,8 +1422,29 @@
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1414,8 +1481,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1423,11 +1496,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1448,7 +1530,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7439,8 +7526,8 @@
       <xdr:row>58</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="9" name="company_location">
@@ -7463,7 +7550,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -11962,7 +12049,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3318447A-BA7F-469A-B162-65FED51C1000}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3318447A-BA7F-469A-B162-65FED51C1000}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="18">
   <location ref="A3:B7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField dataField="1" showAll="0"/>
@@ -13184,7 +13271,7 @@
   <dimension ref="A3:B7"/>
   <sheetViews>
     <sheetView zoomScale="78" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -13307,7 +13394,7 @@
       <c r="A4" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="12">
+      <c r="B4">
         <v>386914.82608695654</v>
       </c>
     </row>
@@ -13315,7 +13402,7 @@
       <c r="A5" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5">
         <v>400000</v>
       </c>
     </row>
@@ -13323,7 +13410,7 @@
       <c r="A6" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="B6" s="12">
+      <c r="B6">
         <v>450000</v>
       </c>
     </row>
@@ -13331,7 +13418,7 @@
       <c r="A7" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="12">
+      <c r="B7">
         <v>455000</v>
       </c>
     </row>
@@ -13339,7 +13426,7 @@
       <c r="A8" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="B8" s="12">
+      <c r="B8">
         <v>569000</v>
       </c>
     </row>
@@ -13347,7 +13434,7 @@
       <c r="A9" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="12">
+      <c r="B9">
         <v>841587.57142857148</v>
       </c>
     </row>
@@ -13355,7 +13442,7 @@
       <c r="A10" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B10" s="12">
+      <c r="B10">
         <v>1101666.6666666667</v>
       </c>
     </row>
@@ -13363,7 +13450,7 @@
       <c r="A11" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="B11" s="12">
+      <c r="B11">
         <v>1700028.5714285714</v>
       </c>
     </row>
@@ -13371,7 +13458,7 @@
       <c r="A12" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="B12" s="12">
+      <c r="B12">
         <v>1902045.3333333333</v>
       </c>
     </row>
@@ -13379,7 +13466,7 @@
       <c r="A13" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="B13" s="12">
+      <c r="B13">
         <v>3208000</v>
       </c>
     </row>
@@ -13387,7 +13474,7 @@
       <c r="A14" s="7" t="s">
         <v>434</v>
       </c>
-      <c r="B14" s="12">
+      <c r="B14">
         <v>918619.23622047249</v>
       </c>
     </row>
@@ -13431,7 +13518,7 @@
       <c r="A4" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="12">
+      <c r="B4">
         <v>67</v>
       </c>
     </row>
@@ -13439,7 +13526,7 @@
       <c r="A5" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5">
         <v>1</v>
       </c>
     </row>
@@ -13447,7 +13534,7 @@
       <c r="A6" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="12">
+      <c r="B6">
         <v>60</v>
       </c>
     </row>
@@ -13455,7 +13542,7 @@
       <c r="A7" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="B7" s="12">
+      <c r="B7">
         <v>6</v>
       </c>
     </row>
@@ -13463,7 +13550,7 @@
       <c r="A8" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B8" s="12">
+      <c r="B8">
         <v>13</v>
       </c>
     </row>
@@ -13471,7 +13558,7 @@
       <c r="A9" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="B9" s="12">
+      <c r="B9">
         <v>1</v>
       </c>
     </row>
@@ -13479,7 +13566,7 @@
       <c r="A10" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="12">
+      <c r="B10">
         <v>12</v>
       </c>
     </row>
@@ -13487,7 +13574,7 @@
       <c r="A11" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="12">
+      <c r="B11">
         <v>126</v>
       </c>
     </row>
@@ -13495,7 +13582,7 @@
       <c r="A12" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="B12" s="12">
+      <c r="B12">
         <v>1</v>
       </c>
     </row>
@@ -13503,7 +13590,7 @@
       <c r="A13" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="B13" s="12">
+      <c r="B13">
         <v>2</v>
       </c>
     </row>
@@ -13511,7 +13598,7 @@
       <c r="A14" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="12">
+      <c r="B14">
         <v>121</v>
       </c>
     </row>
@@ -13519,7 +13606,7 @@
       <c r="A15" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="B15" s="12">
+      <c r="B15">
         <v>2</v>
       </c>
     </row>
@@ -13527,7 +13614,7 @@
       <c r="A16" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="12">
+      <c r="B16">
         <v>94</v>
       </c>
     </row>
@@ -13535,7 +13622,7 @@
       <c r="A17" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="B17" s="12">
+      <c r="B17">
         <v>1</v>
       </c>
     </row>
@@ -13543,7 +13630,7 @@
       <c r="A18" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="B18" s="12">
+      <c r="B18">
         <v>1</v>
       </c>
     </row>
@@ -13551,7 +13638,7 @@
       <c r="A19" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="12">
+      <c r="B19">
         <v>92</v>
       </c>
     </row>
@@ -13559,7 +13646,7 @@
       <c r="A20" s="7" t="s">
         <v>434</v>
       </c>
-      <c r="B20" s="12">
+      <c r="B20">
         <v>300</v>
       </c>
     </row>
@@ -13594,7 +13681,7 @@
       <c r="A4" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="12">
+      <c r="B4">
         <v>306357.85074626864</v>
       </c>
     </row>
@@ -13602,7 +13689,7 @@
       <c r="A5" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5">
         <v>213846.15384615384</v>
       </c>
     </row>
@@ -13610,7 +13697,7 @@
       <c r="A6" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="12">
+      <c r="B6">
         <v>722127.0555555555</v>
       </c>
     </row>
@@ -13618,7 +13705,7 @@
       <c r="A7" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="12">
+      <c r="B7">
         <v>353621.24468085106</v>
       </c>
     </row>
@@ -13626,7 +13713,7 @@
       <c r="A8" s="7" t="s">
         <v>434</v>
       </c>
-      <c r="B8" s="12">
+      <c r="B8">
         <v>491781.27333333332</v>
       </c>
     </row>
@@ -13642,7 +13729,7 @@
   </sheetPr>
   <dimension ref="A1:L301"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
@@ -25109,8 +25196,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44D72109-D832-4F2F-AD69-69A528833105}">
   <dimension ref="A1:AB59"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="42" workbookViewId="0">
-      <selection activeCell="L36" sqref="L36"/>
+    <sheetView showGridLines="0" topLeftCell="A30" zoomScale="74" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L39" sqref="L39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -26899,4 +26986,340 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{646E9C86-1836-481D-BCCA-8354787A2888}">
+  <dimension ref="A1:V25"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="96" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+      <c r="A1" s="12" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" s="13" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="13" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+      <c r="A4" s="12" t="s">
+        <v>438</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>444</v>
+      </c>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="13"/>
+      <c r="Q4" s="13"/>
+      <c r="R4" s="13"/>
+      <c r="S4" s="13"/>
+      <c r="T4" s="13"/>
+      <c r="U4" s="13"/>
+    </row>
+    <row r="5" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+      <c r="B5" s="13" t="s">
+        <v>445</v>
+      </c>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="13"/>
+      <c r="Q5" s="13"/>
+      <c r="R5" s="13"/>
+      <c r="S5" s="13"/>
+      <c r="T5" s="13"/>
+      <c r="U5" s="13"/>
+    </row>
+    <row r="7" spans="1:22" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A7" s="14" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+      <c r="A8" s="12" t="s">
+        <v>440</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>446</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="13"/>
+      <c r="P8" s="13"/>
+      <c r="Q8" s="13"/>
+      <c r="R8" s="13"/>
+      <c r="S8" s="13"/>
+      <c r="T8" s="13"/>
+      <c r="U8" s="13"/>
+      <c r="V8" s="13"/>
+    </row>
+    <row r="9" spans="1:22" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A9"/>
+      <c r="B9" s="13" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+      <c r="A11" s="13" t="s">
+        <v>442</v>
+      </c>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="13"/>
+      <c r="Q11" s="13"/>
+      <c r="R11" s="13"/>
+      <c r="S11" s="13"/>
+      <c r="T11" s="13"/>
+    </row>
+    <row r="12" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+      <c r="A12" s="12" t="s">
+        <v>440</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>448</v>
+      </c>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="13"/>
+      <c r="O12" s="13"/>
+      <c r="P12" s="13"/>
+      <c r="Q12" s="13"/>
+      <c r="R12" s="13"/>
+      <c r="S12" s="13"/>
+      <c r="T12" s="13"/>
+      <c r="U12" s="13"/>
+      <c r="V12" s="13"/>
+    </row>
+    <row r="13" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+      <c r="A13" s="12"/>
+      <c r="B13" s="13" t="s">
+        <v>449</v>
+      </c>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="13"/>
+      <c r="O13" s="13"/>
+      <c r="P13" s="13"/>
+      <c r="Q13" s="13"/>
+      <c r="R13" s="13"/>
+      <c r="S13" s="13"/>
+      <c r="T13" s="13"/>
+      <c r="U13" s="13"/>
+    </row>
+    <row r="14" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+      <c r="A14" s="12"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="13"/>
+      <c r="O14" s="13"/>
+      <c r="P14" s="13"/>
+      <c r="Q14" s="13"/>
+      <c r="R14" s="13"/>
+      <c r="S14" s="12"/>
+      <c r="T14" s="12"/>
+    </row>
+    <row r="17" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+      <c r="A17" s="13" t="s">
+        <v>443</v>
+      </c>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="13"/>
+      <c r="O17" s="13"/>
+      <c r="P17" s="13"/>
+    </row>
+    <row r="18" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+      <c r="A18" s="12" t="s">
+        <v>440</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>450</v>
+      </c>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="13"/>
+      <c r="O18" s="13"/>
+      <c r="P18" s="13"/>
+      <c r="Q18" s="13"/>
+      <c r="R18" s="13"/>
+    </row>
+    <row r="19" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+      <c r="B19" s="13" t="s">
+        <v>451</v>
+      </c>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="13"/>
+      <c r="N19" s="13"/>
+      <c r="O19" s="13"/>
+      <c r="P19" s="13"/>
+      <c r="Q19" s="13"/>
+      <c r="R19" s="13"/>
+      <c r="S19" s="13"/>
+      <c r="T19" s="13"/>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A21" s="15" t="s">
+        <v>433</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A22" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22">
+        <v>306357.85074626864</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A23" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B23">
+        <v>213846.15384615384</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24">
+        <v>722127.0555555555</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A25" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B25">
+        <v>353621.24468085106</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A7:XFD7"/>
+    <mergeCell ref="B9:XFD9"/>
+    <mergeCell ref="A3:XFD3"/>
+    <mergeCell ref="B4:U4"/>
+    <mergeCell ref="B5:U5"/>
+    <mergeCell ref="B8:V8"/>
+    <mergeCell ref="B18:R18"/>
+    <mergeCell ref="B19:T19"/>
+    <mergeCell ref="A17:P17"/>
+    <mergeCell ref="A11:T11"/>
+    <mergeCell ref="B14:R14"/>
+    <mergeCell ref="B12:V12"/>
+    <mergeCell ref="B13:U13"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>